--- a/Modelos em Python/30 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/30 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.80927444791943</v>
+        <v>12.11861244766514</v>
       </c>
       <c r="C11" t="n">
-        <v>39.33086968765939</v>
+        <v>40.46633453761103</v>
       </c>
       <c r="D11" t="n">
-        <v>54.97010712487301</v>
+        <v>55.93624074063101</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/30 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros teste.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.342656884251126</v>
+        <v>0.08342656884251125</v>
       </c>
       <c r="C2" t="n">
-        <v>28.56107880149982</v>
+        <v>0.2856107880149982</v>
       </c>
       <c r="D2" t="n">
-        <v>39.03483413727564</v>
+        <v>0.3903483413727564</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.4550638358514</v>
+        <v>0.094550638358514</v>
       </c>
       <c r="C3" t="n">
-        <v>32.88014278275152</v>
+        <v>0.3288014278275152</v>
       </c>
       <c r="D3" t="n">
-        <v>52.30109572961133</v>
+        <v>0.5230109572961132</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.184519899370999</v>
+        <v>0.08184519899370998</v>
       </c>
       <c r="C4" t="n">
-        <v>27.86618333024775</v>
+        <v>0.2786618333024775</v>
       </c>
       <c r="D4" t="n">
-        <v>39.25439594029343</v>
+        <v>0.3925439594029344</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.612458981724462</v>
+        <v>0.08612458981724462</v>
       </c>
       <c r="C5" t="n">
-        <v>29.40885510420419</v>
+        <v>0.2940885510420418</v>
       </c>
       <c r="D5" t="n">
-        <v>40.15084460253125</v>
+        <v>0.4015084460253125</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.243720431892156</v>
+        <v>0.08243720431892156</v>
       </c>
       <c r="C6" t="n">
-        <v>28.12786513951532</v>
+        <v>0.2812786513951532</v>
       </c>
       <c r="D6" t="n">
-        <v>38.92444677498265</v>
+        <v>0.3892444677498265</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.83449671854495</v>
+        <v>0.1283449671854495</v>
       </c>
       <c r="C7" t="n">
-        <v>44.97424329575333</v>
+        <v>0.4497424329575333</v>
       </c>
       <c r="D7" t="n">
-        <v>58.74462326432146</v>
+        <v>0.5874462326432146</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.50964038607208</v>
+        <v>0.09509640386072081</v>
       </c>
       <c r="C8" t="n">
-        <v>33.05756634994063</v>
+        <v>0.3305756634994063</v>
       </c>
       <c r="D8" t="n">
-        <v>52.41857059214389</v>
+        <v>0.5241857059214389</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.737152181573764</v>
+        <v>0.09737152181573765</v>
       </c>
       <c r="C9" t="n">
-        <v>33.88265590063789</v>
+        <v>0.3388265590063789</v>
       </c>
       <c r="D9" t="n">
-        <v>52.57538618895141</v>
+        <v>0.5257538618895141</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>519.5320315099459</v>
+        <v>5.195320315099459</v>
       </c>
       <c r="C10" t="n">
-        <v>2454.416763903509</v>
+        <v>24.54416763903508</v>
       </c>
       <c r="D10" t="n">
-        <v>2454.426340497992</v>
+        <v>24.54426340497992</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.11861244766514</v>
+        <v>0.1208432542420712</v>
       </c>
       <c r="C11" t="n">
-        <v>40.46633453761103</v>
+        <v>0.4033904581733978</v>
       </c>
       <c r="D11" t="n">
-        <v>55.93624074063101</v>
+        <v>0.5583171268423313</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.58857222193319</v>
+        <v>0.1058857222193319</v>
       </c>
       <c r="C12" t="n">
-        <v>35.31125606269808</v>
+        <v>0.3531125606269808</v>
       </c>
       <c r="D12" t="n">
-        <v>49.62557580659512</v>
+        <v>0.4962557580659512</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.59271240648444</v>
+        <v>0.1459271240648444</v>
       </c>
       <c r="C13" t="n">
-        <v>49.69195522628436</v>
+        <v>0.4969195522628436</v>
       </c>
       <c r="D13" t="n">
-        <v>63.23903259127565</v>
+        <v>0.6323903259127565</v>
       </c>
     </row>
   </sheetData>
